--- a/output/tables/fit.xlsx
+++ b/output/tables/fit.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X2(207)= 2065.41, p &lt; .001; CFI = 0.923; TLI = 0.897; RMSEA = 0.045; SRMR = 0.133.</t>
+          <t>X2(15)= 21.74, p &lt; .001; CFI = 0.995; TLI = 0.991; RMSEA = 0.01; SRMR = 0.016.</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X2(219)= 2058.95, p &lt; .001; CFI = 0.924; TLI = 0.904; RMSEA = 0.043; SRMR = 0.134.</t>
+          <t>X2(19)= 25.88, p &lt; .001; CFI = 0.995; TLI = 0.992; RMSEA = 0.009; SRMR = 0.018.</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X2(238)= 2468.14, p &lt; .001; CFI = 0.898; TLI = 0.861; RMSEA = 0.057; SRMR = 0.138.</t>
+          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.994; TLI = 0.987; RMSEA = 0.012; SRMR = 0.015.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X2(260)= 2479.57, p &lt; .001; CFI = 0.898; TLI = 0.873; RMSEA = 0.054; SRMR = 0.138.</t>
+          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.994; TLI = 0.991; RMSEA = 0.01; SRMR = 0.018.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X2(238)= 2445.57, p &lt; .001; CFI = 0.899; TLI = 0.862; RMSEA = 0.056; SRMR = 0.137.</t>
+          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1.002; RMSEA = 0; SRMR = 0.011.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X2(260)= 2459.4, p &lt; .001; CFI = 0.899; TLI = 0.874; RMSEA = 0.054; SRMR = 0.138.</t>
+          <t>X2(18)= 19.18, p &lt; .001; CFI = 0.999; TLI = 0.999; RMSEA = 0.004; SRMR = 0.015.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X2(221)= 2383.84, p &lt; .001; CFI = 0.901; TLI = 0.855; RMSEA = 0.058; SRMR = 0.137.</t>
+          <t>X2(9)= 9.07, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0.001; SRMR = 0.01.</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>X2(253)= 2413.39, p &lt; .001; CFI = 0.901; TLI = 0.873; RMSEA = 0.054; SRMR = 0.137.</t>
+          <t>X2(17)= 19.19, p &lt; .001; CFI = 0.998; TLI = 0.997; RMSEA = 0.005; SRMR = 0.015.</t>
         </is>
       </c>
     </row>

--- a/output/tables/fit.xlsx
+++ b/output/tables/fit.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X2(15)= 21.74, p &lt; .001; CFI = 0.995; TLI = 0.991; RMSEA = 0.01; SRMR = 0.016.</t>
+          <t>X2(15)= 21.74, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X2(19)= 25.88, p &lt; .001; CFI = 0.995; TLI = 0.992; RMSEA = 0.009; SRMR = 0.018.</t>
+          <t>X2(19)= 25.88, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.994; TLI = 0.987; RMSEA = 0.012; SRMR = 0.015.</t>
+          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.994; TLI = 0.991; RMSEA = 0.01; SRMR = 0.018.</t>
+          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1.002; RMSEA = 0; SRMR = 0.011.</t>
+          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X2(18)= 19.18, p &lt; .001; CFI = 0.999; TLI = 0.999; RMSEA = 0.004; SRMR = 0.015.</t>
+          <t>X2(18)= 19.18, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X2(9)= 9.07, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0.001; SRMR = 0.01.</t>
+          <t>X2(9)= 9.07, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>X2(17)= 19.19, p &lt; .001; CFI = 0.998; TLI = 0.997; RMSEA = 0.005; SRMR = 0.015.</t>
+          <t>X2(17)= 19.19, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0.01; SRMR = 0.01.</t>
         </is>
       </c>
     </row>

--- a/output/tables/fit.xlsx
+++ b/output/tables/fit.xlsx
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t>X2(18)= 19.18, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
+          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X2(18)= 19.18, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.02.</t>
+          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
         </is>
       </c>
     </row>

--- a/output/tables/fit.xlsx
+++ b/output/tables/fit.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X2(15)= 21.74, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t>X2(87)= 130.949, p &lt; .001; CFI = 0.997; TLI = 0.996; RMSEA = 0.011; SRMR = 0.023</t>
         </is>
       </c>
     </row>
@@ -389,79 +389,139 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X2(19)= 25.88, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t>X2(91)= 134.844, p &lt; .001; CFI = 0.997; TLI = 0.996; RMSEA = 0.01; SRMR = 0.023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X2(12)= 10.61, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X2(18)= 19.18, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.02.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X2(12)= 19.39, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X2(18)= 25.36, p &lt; .001; CFI = 0.99; TLI = 0.99; RMSEA = 0.01; SRMR = 0.02.</t>
+          <t>X2(108)= 672.332, p &lt; .001; CFI = 0.958; TLI = 0.941; RMSEA = 0.042; SRMR = 0.065</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>d1</t>
+          <t>b2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X2(9)= 9.07, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0; SRMR = 0.01.</t>
+          <t>X2(118)= 687.028, p &lt; .001; CFI = 0.958; TLI = 0.945; RMSEA = 0.041; SRMR = 0.065</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X2(112)= 678.394, p &lt; .001; CFI = 0.958; TLI = 0.943; RMSEA = 0.042; SRMR = 0.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X2(118)= 685.662, p &lt; .001; CFI = 0.958; TLI = 0.945; RMSEA = 0.041; SRMR = 0.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X2(97)= 637.493, p &lt; .001; CFI = 0.96; TLI = 0.937; RMSEA = 0.044; SRMR = 0.063</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>d2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>X2(17)= 19.19, p &lt; .001; CFI = 1; TLI = 1; RMSEA = 0.01; SRMR = 0.01.</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>X2(113)= 656.099, p &lt; .001; CFI = 0.959; TLI = 0.945; RMSEA = 0.041; SRMR = 0.064</t>
         </is>
       </c>
     </row>
